--- a/StructureDefinition-RS-Observation-blood-pressure.xlsx
+++ b/StructureDefinition-RS-Observation-blood-pressure.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$104</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="579">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T06:06:11+00:00</t>
+    <t>2025-10-15T08:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -689,10 +689,230 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>85354-9</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Blood pressure panel with all children optional</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(urn://example.com/ph-core/fhir/StructureDefinition/ph-core-patient)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RS-Patient)
 </t>
   </si>
   <si>
@@ -746,7 +966,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(urn://example.com/ph-core/fhir/StructureDefinition/ph-core-encounter)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RS-Encounter)
 </t>
   </si>
   <si>
@@ -1137,29 +1357,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1362,9 +1560,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1451,6 +1646,78 @@
     <t>Observation.component:systolic.code</t>
   </si>
   <si>
+    <t>Observation.component:systolic.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.code</t>
+  </si>
+  <si>
+    <t>8480-6</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.display</t>
+  </si>
+  <si>
+    <t>Systolic blood pressure</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
     <t>Observation.component:systolic.value[x]</t>
   </si>
   <si>
@@ -1496,6 +1763,45 @@
   </si>
   <si>
     <t>Observation.component:diastolic.code</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.coding.code</t>
+  </si>
+  <si>
+    <t>8462-4</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.coding.display</t>
+  </si>
+  <si>
+    <t>Diastolic blood pressure</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.text</t>
   </si>
   <si>
     <t>Observation.component:diastolic.value[x]</t>
@@ -1838,7 +2144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP71"/>
+  <dimension ref="A1:AP104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1847,8 +2153,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.64453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -1875,7 +2181,7 @@
     <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3824,7 +4130,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>216</v>
       </c>
@@ -3837,19 +4143,19 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>217</v>
@@ -3860,12 +4166,8 @@
       <c r="M17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>83</v>
       </c>
@@ -3913,7 +4215,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3925,22 +4227,22 @@
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -3948,14 +4250,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3971,19 +4273,19 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4021,19 +4323,19 @@
         <v>83</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4045,7 +4347,7 @@
         <v>83</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>83</v>
@@ -4054,38 +4356,38 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>83</v>
@@ -4094,19 +4396,19 @@
         <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4155,13 +4457,13 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>83</v>
@@ -4170,34 +4472,34 @@
         <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4207,29 +4509,25 @@
         <v>94</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>83</v>
       </c>
@@ -4277,7 +4575,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4289,22 +4587,22 @@
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>83</v>
@@ -4312,21 +4610,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -4335,19 +4633,19 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>258</v>
+        <v>143</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4385,31 +4683,31 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>83</v>
@@ -4418,13 +4716,13 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4432,10 +4730,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4446,7 +4744,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>83</v>
@@ -4458,24 +4756,26 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>263</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>83</v>
@@ -4517,13 +4817,13 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>83</v>
@@ -4532,19 +4832,19 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4552,10 +4852,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4566,7 +4866,7 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>83</v>
@@ -4578,20 +4878,18 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>83</v>
       </c>
@@ -4639,7 +4937,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4648,7 +4946,7 @@
         <v>94</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>106</v>
@@ -4657,27 +4955,27 @@
         <v>83</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>281</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4697,22 +4995,20 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4722,7 +5018,7 @@
         <v>83</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>83</v>
@@ -4737,13 +5033,13 @@
         <v>83</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
@@ -4761,7 +5057,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4770,7 +5066,7 @@
         <v>94</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>106</v>
@@ -4782,10 +5078,10 @@
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>137</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
@@ -4796,21 +5092,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>83</v>
@@ -4819,22 +5115,20 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4844,7 +5138,7 @@
         <v>83</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>83</v>
@@ -4859,13 +5153,13 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
@@ -4883,13 +5177,13 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>83</v>
@@ -4901,27 +5195,27 @@
         <v>83</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4932,7 +5226,7 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>83</v>
@@ -4941,22 +5235,22 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5005,13 +5299,13 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>83</v>
@@ -5026,10 +5320,10 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -5040,10 +5334,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5063,21 +5357,23 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
       </c>
@@ -5101,13 +5397,13 @@
         <v>83</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>83</v>
@@ -5125,7 +5421,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5143,27 +5439,27 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>318</v>
+        <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>321</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5171,34 +5467,34 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5223,13 +5519,13 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>328</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5247,7 +5543,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5262,19 +5558,19 @@
         <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5282,10 +5578,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5296,7 +5592,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>83</v>
@@ -5305,19 +5601,19 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5367,13 +5663,13 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>83</v>
@@ -5385,31 +5681,31 @@
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>336</v>
+        <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>337</v>
+        <v>212</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>83</v>
+        <v>305</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5419,27 +5715,29 @@
         <v>94</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
       </c>
@@ -5487,7 +5785,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5502,65 +5800,65 @@
         <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>345</v>
+        <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>348</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>83</v>
+        <v>316</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5609,34 +5907,34 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>355</v>
+        <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>83</v>
@@ -5644,10 +5942,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5667,18 +5965,20 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5727,7 +6027,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5739,7 +6039,7 @@
         <v>83</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>83</v>
@@ -5748,13 +6048,13 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>83</v>
@@ -5762,14 +6062,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5785,21 +6085,21 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>140</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>141</v>
+        <v>336</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
@@ -5847,7 +6147,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5859,22 +6159,22 @@
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>83</v>
@@ -5882,45 +6182,45 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>140</v>
+        <v>344</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>143</v>
+        <v>347</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
@@ -5969,45 +6269,45 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>137</v>
+        <v>352</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6030,16 +6330,20 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>373</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6063,13 +6367,13 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -6087,7 +6391,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6096,7 +6400,7 @@
         <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>106</v>
@@ -6108,10 +6412,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>377</v>
+        <v>137</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6122,21 +6426,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>83</v>
+        <v>365</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6148,16 +6452,20 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>373</v>
+        <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
       </c>
@@ -6181,13 +6489,13 @@
         <v>83</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>83</v>
@@ -6205,16 +6513,16 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>106</v>
@@ -6223,27 +6531,27 @@
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>83</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6254,7 +6562,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>83</v>
@@ -6266,19 +6574,19 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>377</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6303,13 +6611,13 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>388</v>
+        <v>83</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6327,13 +6635,13 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>83</v>
@@ -6345,13 +6653,13 @@
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>302</v>
+        <v>383</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6362,10 +6670,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6376,7 +6684,7 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>83</v>
@@ -6391,17 +6699,15 @@
         <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6428,10 +6734,10 @@
         <v>207</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -6449,13 +6755,13 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>83</v>
@@ -6473,21 +6779,21 @@
         <v>391</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>302</v>
+        <v>392</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>83</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6510,17 +6816,19 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6545,13 +6853,13 @@
         <v>83</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>83</v>
+        <v>399</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>83</v>
+        <v>400</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -6569,7 +6877,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6590,10 +6898,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6604,10 +6912,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6630,15 +6938,17 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -6687,7 +6997,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6705,27 +7015,27 @@
         <v>83</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>83</v>
+        <v>408</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>83</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6736,7 +7046,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>83</v>
@@ -6745,19 +7055,19 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6807,13 +7117,13 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>83</v>
@@ -6825,27 +7135,27 @@
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>83</v>
+        <v>417</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>83</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6865,21 +7175,23 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
       </c>
@@ -6927,7 +7239,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6939,7 +7251,7 @@
         <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
@@ -6948,10 +7260,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -6962,10 +7274,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6973,10 +7285,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>83</v>
@@ -6985,23 +7297,19 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>424</v>
+        <v>218</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>83</v>
       </c>
@@ -7037,29 +7345,31 @@
         <v>83</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>422</v>
+        <v>220</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
@@ -7068,10 +7378,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>431</v>
+        <v>221</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7082,21 +7392,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7108,15 +7418,17 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>359</v>
+        <v>140</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>141</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7165,19 +7477,19 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>227</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>83</v>
@@ -7189,7 +7501,7 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>363</v>
+        <v>221</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7200,14 +7512,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7220,24 +7532,26 @@
         <v>83</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>141</v>
+        <v>434</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7285,7 +7599,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7309,7 +7623,7 @@
         <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>363</v>
+        <v>137</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7320,46 +7634,42 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>140</v>
+        <v>438</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>439</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
@@ -7407,19 +7717,19 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
@@ -7428,10 +7738,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>83</v>
+        <v>442</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>137</v>
+        <v>443</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7442,10 +7752,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7453,7 +7763,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>94</v>
@@ -7465,23 +7775,19 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>192</v>
+        <v>438</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7505,13 +7811,13 @@
         <v>83</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>83</v>
@@ -7529,16 +7835,16 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>106</v>
@@ -7547,16 +7853,16 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>439</v>
+        <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>212</v>
+        <v>442</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>213</v>
+        <v>447</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>83</v>
@@ -7564,10 +7870,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7587,22 +7893,22 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>274</v>
+        <v>450</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>276</v>
+        <v>452</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7627,13 +7933,13 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>83</v>
+        <v>453</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
@@ -7651,7 +7957,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7669,27 +7975,27 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>279</v>
+        <v>456</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>280</v>
+        <v>374</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>281</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7700,7 +8006,7 @@
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>83</v>
@@ -7715,16 +8021,16 @@
         <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>286</v>
+        <v>461</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -7749,13 +8055,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>288</v>
+        <v>462</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>289</v>
+        <v>463</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -7773,16 +8079,16 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>106</v>
@@ -7791,13 +8097,13 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>83</v>
+        <v>455</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>137</v>
+        <v>456</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>291</v>
+        <v>374</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -7808,21 +8114,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>83</v>
@@ -7834,19 +8140,17 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>192</v>
+        <v>465</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>294</v>
+        <v>466</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>297</v>
+        <v>468</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -7871,13 +8175,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -7895,13 +8199,13 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>83</v>
@@ -7913,27 +8217,27 @@
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>302</v>
+        <v>469</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7944,7 +8248,7 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
@@ -7956,20 +8260,16 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>83</v>
       </c>
@@ -8017,13 +8317,13 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
@@ -8038,10 +8338,10 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>357</v>
+        <v>473</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8052,23 +8352,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -8080,20 +8378,18 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8141,7 +8437,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8162,10 +8458,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8176,10 +8472,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8190,7 +8486,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>83</v>
@@ -8199,18 +8495,20 @@
         <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>482</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
+        <v>483</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8259,19 +8557,19 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>362</v>
+        <v>481</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>83</v>
@@ -8280,10 +8578,10 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>83</v>
+        <v>479</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>363</v>
+        <v>486</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8294,18 +8592,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>488</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>82</v>
@@ -8317,21 +8615,23 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>140</v>
+        <v>422</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>365</v>
+        <v>490</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8367,19 +8667,17 @@
         <v>83</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>366</v>
+        <v>487</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8391,7 +8689,7 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>83</v>
@@ -8400,10 +8698,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>83</v>
+        <v>494</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>363</v>
+        <v>495</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8414,46 +8712,42 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>218</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>83</v>
       </c>
@@ -8501,19 +8795,19 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>371</v>
+        <v>220</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>83</v>
@@ -8525,7 +8819,7 @@
         <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8534,48 +8828,46 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>436</v>
+        <v>141</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>437</v>
+        <v>223</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>83</v>
       </c>
@@ -8599,13 +8891,13 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -8623,34 +8915,34 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>435</v>
+        <v>227</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>439</v>
+        <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -8658,45 +8950,45 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>83</v>
+        <v>433</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>459</v>
+        <v>140</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>274</v>
+        <v>435</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>442</v>
+        <v>143</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -8733,59 +9025,59 @@
         <v>83</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>461</v>
+        <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>443</v>
+        <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>281</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>83</v>
       </c>
@@ -8797,7 +9089,7 @@
         <v>94</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>83</v>
@@ -8806,19 +9098,19 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>459</v>
+        <v>192</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>274</v>
+        <v>501</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -8843,13 +9135,13 @@
         <v>83</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
@@ -8867,10 +9159,10 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>94</v>
@@ -8885,27 +9177,27 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>443</v>
+        <v>503</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>281</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8925,22 +9217,22 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>192</v>
+        <v>344</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>445</v>
+        <v>505</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>446</v>
+        <v>346</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -8965,13 +9257,13 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -8989,7 +9281,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -8998,7 +9290,7 @@
         <v>94</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>106</v>
@@ -9007,38 +9299,38 @@
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>83</v>
+        <v>507</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>137</v>
+        <v>351</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>83</v>
@@ -9053,16 +9345,16 @@
         <v>192</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>294</v>
+        <v>509</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>295</v>
+        <v>510</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>296</v>
+        <v>511</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9087,13 +9379,13 @@
         <v>83</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
@@ -9111,16 +9403,16 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>83</v>
+        <v>362</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>106</v>
@@ -9129,31 +9421,31 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>466</v>
+        <v>512</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>83</v>
+        <v>365</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9172,19 +9464,19 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>450</v>
+        <v>366</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>451</v>
+        <v>367</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9209,13 +9501,13 @@
         <v>83</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -9233,7 +9525,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9251,40 +9543,38 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>83</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9293,22 +9583,22 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>350</v>
+        <v>84</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>424</v>
+        <v>514</v>
       </c>
       <c r="M62" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9357,7 +9647,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>422</v>
+        <v>513</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9378,10 +9668,10 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9392,18 +9682,20 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>469</v>
+        <v>516</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>94</v>
@@ -9415,19 +9707,23 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>360</v>
+        <v>489</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
@@ -9475,19 +9771,19 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>362</v>
+        <v>487</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>83</v>
@@ -9496,10 +9792,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>83</v>
+        <v>494</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>363</v>
+        <v>495</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9510,21 +9806,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>83</v>
@@ -9536,17 +9832,15 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>83</v>
@@ -9595,19 +9889,19 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>83</v>
@@ -9619,7 +9913,7 @@
         <v>83</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>363</v>
+        <v>221</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9630,14 +9924,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9650,26 +9944,24 @@
         <v>83</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>369</v>
+        <v>141</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>370</v>
+        <v>223</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O65" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
@@ -9717,7 +10009,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>371</v>
+        <v>227</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9741,7 +10033,7 @@
         <v>83</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -9750,47 +10042,47 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>435</v>
+        <v>498</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>83</v>
+        <v>433</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>438</v>
+        <v>143</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -9815,13 +10107,13 @@
         <v>83</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
@@ -9839,45 +10131,45 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>439</v>
+        <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9891,7 +10183,7 @@
         <v>94</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>83</v>
@@ -9900,19 +10192,19 @@
         <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>459</v>
+        <v>192</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>274</v>
+        <v>501</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -9937,32 +10229,34 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AC67" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>461</v>
+        <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>94</v>
@@ -9977,65 +10271,59 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>443</v>
+        <v>503</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>281</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>459</v>
+        <v>217</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>441</v>
+        <v>218</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>83</v>
       </c>
@@ -10083,7 +10371,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10095,44 +10383,44 @@
         <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>443</v>
+        <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>281</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
+        <v>525</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>83</v>
@@ -10144,20 +10432,18 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>445</v>
+        <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>446</v>
+        <v>223</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>83</v>
       </c>
@@ -10181,43 +10467,43 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>444</v>
+        <v>227</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>83</v>
@@ -10226,10 +10512,10 @@
         <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -10240,21 +10526,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>448</v>
+        <v>527</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>83</v>
@@ -10263,22 +10549,22 @@
         <v>83</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10303,13 +10589,13 @@
         <v>83</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>83</v>
@@ -10327,7 +10613,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>448</v>
+        <v>234</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10345,27 +10631,27 @@
         <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
+        <v>529</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10376,7 +10662,7 @@
         <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>83</v>
@@ -10388,20 +10674,16 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>450</v>
+        <v>218</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>83</v>
       </c>
@@ -10449,41 +10731,4037 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>449</v>
+        <v>220</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AI71" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
+      <c r="H72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AK71" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP71" t="s" s="2">
+      <c r="AK73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AC79" s="2"/>
+      <c r="AD79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AC100" s="2"/>
+      <c r="AD100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP104" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP71">
+  <autoFilter ref="A1:AP104">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10493,7 +14771,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI103">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
